--- a/src/test/resources/dataProvider/Data.xlsx
+++ b/src/test/resources/dataProvider/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="16515" windowHeight="6045" tabRatio="623"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16725" windowHeight="9135" tabRatio="623"/>
   </bookViews>
   <sheets>
     <sheet name="Testcase Data" sheetId="6" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -92,12 +92,6 @@
     <t>Select Cat/LI Sets</t>
   </si>
   <si>
-    <t>TC_07_URL_check_cat_li_sets_Url</t>
-  </si>
-  <si>
-    <t>TC_08_URL_selection_Groups_Url</t>
-  </si>
-  <si>
     <t>Selection groups</t>
   </si>
   <si>
@@ -159,6 +153,33 @@
   </si>
   <si>
     <t>TC_06_URL_Outcome_Config</t>
+  </si>
+  <si>
+    <t>TC_07_URL_check_cat_li_sets</t>
+  </si>
+  <si>
+    <t>TC_08_URL_selection_Groups</t>
+  </si>
+  <si>
+    <t>TC_09_URL_Select_Cats</t>
+  </si>
+  <si>
+    <t>TC_10_URL_Main_Quantify</t>
+  </si>
+  <si>
+    <t>TC_11_URL_Deliv_analysis_Sunburst</t>
+  </si>
+  <si>
+    <t>TC_12_URL_Deliv_analysis_treemap</t>
+  </si>
+  <si>
+    <t>TC_13_URL_Benefits_report_list</t>
+  </si>
+  <si>
+    <t>TC_14_URL_Peer_insign_bubble</t>
+  </si>
+  <si>
+    <t>TC_15_URL_Scope_bubble</t>
   </si>
 </sst>
 </file>
@@ -648,7 +669,7 @@
   <dimension ref="A1:Q91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -748,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>18</v>
@@ -774,7 +795,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>19</v>
@@ -792,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>20</v>
@@ -813,7 +834,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>21</v>
@@ -831,7 +852,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>22</v>
@@ -849,7 +870,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>23</v>
@@ -867,7 +888,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>24</v>
@@ -885,13 +906,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>28</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="4"/>
@@ -899,13 +920,17 @@
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:17" s="2" customFormat="1">
-      <c r="A14" s="1"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="1">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="C14" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="4"/>
@@ -913,13 +938,17 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:17" s="2" customFormat="1">
-      <c r="A15" s="1"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="1">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="C15" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="4"/>
@@ -927,13 +956,17 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:17" s="2" customFormat="1">
-      <c r="A16" s="1"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="1">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="C16" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="4"/>
@@ -941,13 +974,17 @@
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:17" s="2" customFormat="1">
-      <c r="A17" s="1"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="1">
+        <v>12</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="C17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>35</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="4"/>
@@ -955,13 +992,17 @@
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:17" s="2" customFormat="1">
-      <c r="A18" s="1"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="1">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="C18" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="4"/>
@@ -969,13 +1010,17 @@
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:17" s="2" customFormat="1">
-      <c r="A19" s="1"/>
-      <c r="B19" s="3"/>
+      <c r="A19" s="1">
+        <v>14</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="C19" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="4"/>
@@ -983,13 +1028,17 @@
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:17" s="2" customFormat="1">
-      <c r="A20" s="1"/>
-      <c r="B20" s="3"/>
+      <c r="A20" s="1">
+        <v>15</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="C20" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="4"/>

--- a/src/test/resources/dataProvider/Data.xlsx
+++ b/src/test/resources/dataProvider/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="16725" windowHeight="9135" tabRatio="623"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="17550" windowHeight="6705" tabRatio="623"/>
   </bookViews>
   <sheets>
     <sheet name="Testcase Data" sheetId="6" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="126">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -180,6 +180,219 @@
   </si>
   <si>
     <t>TC_15_URL_Scope_bubble</t>
+  </si>
+  <si>
+    <t>Scoping progress tracking</t>
+  </si>
+  <si>
+    <t>/?act=Scoping</t>
+  </si>
+  <si>
+    <t>UAT progress tracking</t>
+  </si>
+  <si>
+    <t>/?act=TestingProgress</t>
+  </si>
+  <si>
+    <t>Risk &amp; mgt &amp; viz</t>
+  </si>
+  <si>
+    <t>/?act=Risks</t>
+  </si>
+  <si>
+    <t>Dates &amp; Milestones</t>
+  </si>
+  <si>
+    <t>/?act=Timing</t>
+  </si>
+  <si>
+    <t>Specification</t>
+  </si>
+  <si>
+    <t>/?act=Specification</t>
+  </si>
+  <si>
+    <t>TC_16_URL_SCOPING</t>
+  </si>
+  <si>
+    <t>TC_17_URL_TESTING_PROCESS</t>
+  </si>
+  <si>
+    <t>TC_18_URL_RISKMANAGMENT</t>
+  </si>
+  <si>
+    <t>TC_19_URL_TIMINGS</t>
+  </si>
+  <si>
+    <t>TC_20_URL_SPECIFICATION</t>
+  </si>
+  <si>
+    <t>EoI Invite</t>
+  </si>
+  <si>
+    <t>/?act=eoi_email</t>
+  </si>
+  <si>
+    <t>EoI results</t>
+  </si>
+  <si>
+    <t>/?act=eoi_result</t>
+  </si>
+  <si>
+    <t>REQUEST FOR QUOTATION INVITATION</t>
+  </si>
+  <si>
+    <t>/?act=rfq_email</t>
+  </si>
+  <si>
+    <t>RfQ Results</t>
+  </si>
+  <si>
+    <t>/?act=rfq_result</t>
+  </si>
+  <si>
+    <t>/?act=eoi_create_pages</t>
+  </si>
+  <si>
+    <t>/?act=vendor_import_export_fc</t>
+  </si>
+  <si>
+    <t>/?act=VendorFCPickerNew</t>
+  </si>
+  <si>
+    <t>/?act=VendorFLIChart</t>
+  </si>
+  <si>
+    <t>LI Bar</t>
+  </si>
+  <si>
+    <t>/?act=LIChart</t>
+  </si>
+  <si>
+    <t>Cat level fit bar chart</t>
+  </si>
+  <si>
+    <t>/?act=FitChart</t>
+  </si>
+  <si>
+    <t>Compare systems to scope</t>
+  </si>
+  <si>
+    <t>/?act=CompareChart</t>
+  </si>
+  <si>
+    <t>Invite Assessors</t>
+  </si>
+  <si>
+    <t>/?act=assessorInvite</t>
+  </si>
+  <si>
+    <t>Assessor data</t>
+  </si>
+  <si>
+    <t>/?act=AssorResult</t>
+  </si>
+  <si>
+    <t>DETAILED SYSTEM FIT ANALYSIS</t>
+  </si>
+  <si>
+    <t>/?act=FLIListingVendor</t>
+  </si>
+  <si>
+    <t>Selection funnel view</t>
+  </si>
+  <si>
+    <t>/?act=vendorselection</t>
+  </si>
+  <si>
+    <t>Crietria Assess Vs Fit Rank</t>
+  </si>
+  <si>
+    <t>/?act=analyse</t>
+  </si>
+  <si>
+    <t>Market scan chart</t>
+  </si>
+  <si>
+    <t>/?act=SystemMatch</t>
+  </si>
+  <si>
+    <t>Multi system market scan chart</t>
+  </si>
+  <si>
+    <t>/?act=CombinedSystemMatch</t>
+  </si>
+  <si>
+    <t>Detailed system fit</t>
+  </si>
+  <si>
+    <t>/?act=fitScoreChart</t>
+  </si>
+  <si>
+    <t>Selection criteria graph</t>
+  </si>
+  <si>
+    <t>/?act=assess-Criteria</t>
+  </si>
+  <si>
+    <t>Func Assessement graph</t>
+  </si>
+  <si>
+    <t>/?act=assess-Cat</t>
+  </si>
+  <si>
+    <t>Func Assessement Data</t>
+  </si>
+  <si>
+    <t>/?act=AssorCatResult</t>
+  </si>
+  <si>
+    <t>Func Assess Vs Fit Rank</t>
+  </si>
+  <si>
+    <t>/?act=CatAnalysis</t>
+  </si>
+  <si>
+    <t>Set selection criteria</t>
+  </si>
+  <si>
+    <t>/?act=SelectionCriteria</t>
+  </si>
+  <si>
+    <t>Deliverables Prioritisation</t>
+  </si>
+  <si>
+    <t>/?act=DeliverablesPrioritisation</t>
+  </si>
+  <si>
+    <t>Deliverables order list</t>
+  </si>
+  <si>
+    <t>/?act=PrioritisedDeliverables</t>
+  </si>
+  <si>
+    <t>Progress input &amp; tracking</t>
+  </si>
+  <si>
+    <t>/?act=Implement</t>
+  </si>
+  <si>
+    <t>Track progress chart</t>
+  </si>
+  <si>
+    <t>/?act=delivering</t>
+  </si>
+  <si>
+    <t>UAT Progress chart</t>
+  </si>
+  <si>
+    <t>/?act=UATTrack</t>
+  </si>
+  <si>
+    <t>UAT progress inputs</t>
+  </si>
+  <si>
+    <t>/?act=UATGuide</t>
   </si>
 </sst>
 </file>
@@ -668,15 +881,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="6.875" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="47.875" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="47.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="35.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="27.25" style="10" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="19.375" style="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="24.375" style="4" customWidth="1" collapsed="1"/>
@@ -1046,50 +1259,90 @@
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:17" s="2" customFormat="1">
-      <c r="A21" s="1"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="10"/>
+      <c r="A21" s="1">
+        <v>16</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="4"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:17" s="2" customFormat="1">
-      <c r="A22" s="1"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="10"/>
+      <c r="A22" s="1">
+        <v>17</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="4"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:17" s="2" customFormat="1">
-      <c r="A23" s="1"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="10"/>
+      <c r="A23" s="1">
+        <v>18</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="4"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:17" s="2" customFormat="1">
-      <c r="A24" s="1"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="10"/>
+      <c r="A24" s="1">
+        <v>19</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="4"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:17" s="2" customFormat="1">
-      <c r="A25" s="1"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="10"/>
+      <c r="A25" s="1">
+        <v>20</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="4"/>
       <c r="K25" s="1"/>
@@ -1098,8 +1351,12 @@
     <row r="26" spans="1:17" s="2" customFormat="1">
       <c r="A26" s="1"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="10"/>
+      <c r="C26" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>71</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="4"/>
       <c r="K26" s="1"/>
@@ -1108,8 +1365,12 @@
     <row r="27" spans="1:17" s="2" customFormat="1">
       <c r="A27" s="1"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="10"/>
+      <c r="C27" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>73</v>
+      </c>
       <c r="E27" s="1"/>
       <c r="F27" s="4"/>
       <c r="K27" s="1"/>
@@ -1118,8 +1379,12 @@
     <row r="28" spans="1:17" s="2" customFormat="1">
       <c r="A28" s="1"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="10"/>
+      <c r="C28" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>75</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="4"/>
       <c r="K28" s="1"/>
@@ -1128,8 +1393,12 @@
     <row r="29" spans="1:17" s="2" customFormat="1">
       <c r="A29" s="1"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="10"/>
+      <c r="C29" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="E29" s="1"/>
       <c r="F29" s="4"/>
       <c r="K29" s="1"/>
@@ -1138,8 +1407,10 @@
     <row r="30" spans="1:17" s="2" customFormat="1">
       <c r="A30" s="1"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="10"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="E30" s="1"/>
       <c r="F30" s="4"/>
       <c r="K30" s="1"/>
@@ -1148,8 +1419,10 @@
     <row r="31" spans="1:17" s="2" customFormat="1">
       <c r="A31" s="1"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="10"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12" t="s">
+        <v>79</v>
+      </c>
       <c r="E31" s="1"/>
       <c r="F31" s="4"/>
       <c r="K31" s="1"/>
@@ -1158,8 +1431,10 @@
     <row r="32" spans="1:17" s="2" customFormat="1">
       <c r="A32" s="1"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="10"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12" t="s">
+        <v>80</v>
+      </c>
       <c r="E32" s="1"/>
       <c r="F32" s="4"/>
       <c r="K32" s="1"/>
@@ -1168,8 +1443,10 @@
     <row r="33" spans="1:17" s="2" customFormat="1">
       <c r="A33" s="1"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="10"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12" t="s">
+        <v>81</v>
+      </c>
       <c r="E33" s="1"/>
       <c r="F33" s="4"/>
       <c r="K33" s="1"/>
@@ -1178,8 +1455,12 @@
     <row r="34" spans="1:17" s="2" customFormat="1">
       <c r="A34" s="1"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="10"/>
+      <c r="C34" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="E34" s="1"/>
       <c r="F34" s="4"/>
       <c r="K34" s="1"/>
@@ -1188,8 +1469,12 @@
     <row r="35" spans="1:17" s="2" customFormat="1">
       <c r="A35" s="1"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="10"/>
+      <c r="C35" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="E35" s="1"/>
       <c r="F35" s="4"/>
       <c r="K35" s="1"/>
@@ -1198,8 +1483,12 @@
     <row r="36" spans="1:17" s="2" customFormat="1">
       <c r="A36" s="1"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="10"/>
+      <c r="C36" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="E36" s="1"/>
       <c r="F36" s="4"/>
       <c r="K36" s="1"/>
@@ -1208,8 +1497,12 @@
     <row r="37" spans="1:17" s="2" customFormat="1">
       <c r="A37" s="1"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="10"/>
+      <c r="C37" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>89</v>
+      </c>
       <c r="E37" s="1"/>
       <c r="F37" s="4"/>
       <c r="K37" s="1"/>
@@ -1218,8 +1511,12 @@
     <row r="38" spans="1:17" s="2" customFormat="1">
       <c r="A38" s="1"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="10"/>
+      <c r="C38" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="E38" s="1"/>
       <c r="F38" s="4"/>
       <c r="K38" s="1"/>
@@ -1228,8 +1525,12 @@
     <row r="39" spans="1:17" s="2" customFormat="1">
       <c r="A39" s="1"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="10"/>
+      <c r="C39" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>93</v>
+      </c>
       <c r="E39" s="1"/>
       <c r="F39" s="4"/>
       <c r="K39" s="1"/>
@@ -1238,8 +1539,12 @@
     <row r="40" spans="1:17" s="2" customFormat="1">
       <c r="A40" s="1"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="10"/>
+      <c r="C40" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>95</v>
+      </c>
       <c r="E40" s="1"/>
       <c r="F40" s="4"/>
       <c r="K40" s="1"/>
@@ -1248,8 +1553,12 @@
     <row r="41" spans="1:17" s="2" customFormat="1">
       <c r="A41" s="1"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="10"/>
+      <c r="C41" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>97</v>
+      </c>
       <c r="E41" s="1"/>
       <c r="F41" s="4"/>
       <c r="K41" s="1"/>
@@ -1258,8 +1567,12 @@
     <row r="42" spans="1:17" s="2" customFormat="1">
       <c r="A42" s="1"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="10"/>
+      <c r="C42" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>99</v>
+      </c>
       <c r="E42" s="1"/>
       <c r="F42" s="4"/>
       <c r="K42" s="1"/>
@@ -1268,8 +1581,12 @@
     <row r="43" spans="1:17" s="2" customFormat="1">
       <c r="A43" s="1"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="10"/>
+      <c r="C43" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>101</v>
+      </c>
       <c r="E43" s="1"/>
       <c r="F43" s="4"/>
       <c r="K43" s="1"/>
@@ -1278,8 +1595,12 @@
     <row r="44" spans="1:17" s="2" customFormat="1">
       <c r="A44" s="1"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="10"/>
+      <c r="C44" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>103</v>
+      </c>
       <c r="E44" s="1"/>
       <c r="F44" s="4"/>
       <c r="K44" s="1"/>
@@ -1288,8 +1609,12 @@
     <row r="45" spans="1:17" s="2" customFormat="1">
       <c r="A45" s="1"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="10"/>
+      <c r="C45" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>105</v>
+      </c>
       <c r="E45" s="1"/>
       <c r="F45" s="4"/>
       <c r="K45" s="1"/>
@@ -1298,8 +1623,12 @@
     <row r="46" spans="1:17" s="2" customFormat="1">
       <c r="A46" s="1"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="10"/>
+      <c r="C46" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>107</v>
+      </c>
       <c r="E46" s="1"/>
       <c r="F46" s="4"/>
       <c r="K46" s="1"/>
@@ -1308,8 +1637,12 @@
     <row r="47" spans="1:17" s="2" customFormat="1">
       <c r="A47" s="1"/>
       <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="10"/>
+      <c r="C47" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>109</v>
+      </c>
       <c r="E47" s="1"/>
       <c r="F47" s="4"/>
       <c r="K47" s="1"/>
@@ -1318,8 +1651,12 @@
     <row r="48" spans="1:17" s="2" customFormat="1">
       <c r="A48" s="1"/>
       <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="10"/>
+      <c r="C48" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="E48" s="1"/>
       <c r="F48" s="4"/>
       <c r="K48" s="1"/>
@@ -1328,8 +1665,12 @@
     <row r="49" spans="1:17" s="2" customFormat="1">
       <c r="A49" s="1"/>
       <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="10"/>
+      <c r="C49" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>113</v>
+      </c>
       <c r="E49" s="1"/>
       <c r="F49" s="4"/>
       <c r="K49" s="1"/>
@@ -1338,8 +1679,12 @@
     <row r="50" spans="1:17" s="2" customFormat="1">
       <c r="A50" s="1"/>
       <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="10"/>
+      <c r="C50" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>115</v>
+      </c>
       <c r="E50" s="1"/>
       <c r="F50" s="4"/>
       <c r="K50" s="1"/>
@@ -1348,8 +1693,12 @@
     <row r="51" spans="1:17" s="2" customFormat="1">
       <c r="A51" s="1"/>
       <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="10"/>
+      <c r="C51" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>117</v>
+      </c>
       <c r="E51" s="1"/>
       <c r="F51" s="4"/>
       <c r="K51" s="1"/>
@@ -1358,8 +1707,12 @@
     <row r="52" spans="1:17" s="2" customFormat="1">
       <c r="A52" s="1"/>
       <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="10"/>
+      <c r="C52" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>119</v>
+      </c>
       <c r="E52" s="1"/>
       <c r="F52" s="4"/>
       <c r="K52" s="1"/>
@@ -1368,8 +1721,12 @@
     <row r="53" spans="1:17" s="2" customFormat="1">
       <c r="A53" s="1"/>
       <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="10"/>
+      <c r="C53" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>121</v>
+      </c>
       <c r="E53" s="1"/>
       <c r="F53" s="4"/>
       <c r="K53" s="1"/>
@@ -1378,8 +1735,12 @@
     <row r="54" spans="1:17" s="2" customFormat="1">
       <c r="A54" s="1"/>
       <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="10"/>
+      <c r="C54" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>123</v>
+      </c>
       <c r="E54" s="1"/>
       <c r="F54" s="4"/>
       <c r="K54" s="1"/>
@@ -1388,8 +1749,12 @@
     <row r="55" spans="1:17" s="2" customFormat="1">
       <c r="A55" s="1"/>
       <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="10"/>
+      <c r="C55" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="E55" s="1"/>
       <c r="F55" s="4"/>
       <c r="K55" s="1"/>
@@ -1398,8 +1763,12 @@
     <row r="56" spans="1:17" s="2" customFormat="1">
       <c r="A56" s="1"/>
       <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="10"/>
+      <c r="C56" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>125</v>
+      </c>
       <c r="E56" s="1"/>
       <c r="F56" s="4"/>
       <c r="K56" s="1"/>
